--- a/Code/R/Magnan/VaxiJen_IT.xlsx
+++ b/Code/R/Magnan/VaxiJen_IT.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="45" windowWidth="20115" windowHeight="7995" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="45" windowWidth="20115" windowHeight="7995" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Score" sheetId="1" r:id="rId1"/>
@@ -4994,7 +4994,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Enrichment!$C$1</c:f>
+              <c:f>Enrichment!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5008,320 +5008,320 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
+              <c:f>Enrichment!$A$2:$A$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
               <c:f>Enrichment!$B$2:$B$101</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="100"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>34</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>37</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>38</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>39</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>43</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>44</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>46</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>47</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>48</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>49</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>51</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>52</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>53</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>54</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>55</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>57</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>58</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>59</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>61</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>62</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>63</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>65</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>66</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>67</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>68</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>69</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>71</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>72</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>73</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>74</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>75</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>76</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>77</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>78</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>79</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>81</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>82</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>83</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>84</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>85</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>86</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>87</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>88</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>89</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>91</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>92</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>93</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>94</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>95</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>96</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>97</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>98</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>99</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>100</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Enrichment!$C$2:$C$101</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="100"/>
-                <c:pt idx="0">
                   <c:v>1.3</c:v>
                 </c:pt>
                 <c:pt idx="1">
@@ -5626,23 +5626,23 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="76218752"/>
-        <c:axId val="76256768"/>
+        <c:axId val="139549696"/>
+        <c:axId val="139559680"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="76218752"/>
+        <c:axId val="139549696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="76256768"/>
+        <c:crossAx val="139559680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="76256768"/>
+        <c:axId val="139559680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5650,7 +5650,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="76218752"/>
+        <c:crossAx val="139549696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5663,7 +5663,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -7570,23 +7570,23 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="78038528"/>
-        <c:axId val="78040064"/>
+        <c:axId val="139966720"/>
+        <c:axId val="139976704"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="78038528"/>
+        <c:axId val="139966720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="78040064"/>
+        <c:crossAx val="139976704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="78040064"/>
+        <c:axId val="139976704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7594,7 +7594,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="78038528"/>
+        <c:crossAx val="139966720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7607,7 +7607,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
+    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -7617,13 +7617,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>600075</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>295275</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
@@ -24088,1119 +24088,819 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C101"/>
+  <dimension ref="A1:B101"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1">
+    <row r="1" spans="1:2" s="1" customFormat="1">
+      <c r="A1" s="1" t="s">
+        <v>1465</v>
+      </c>
       <c r="B1" s="1" t="s">
-        <v>1465</v>
-      </c>
-      <c r="C1" s="1" t="s">
         <v>1466</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:2">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
         <v>1.3</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:2">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>2</v>
-      </c>
-      <c r="C3">
         <v>2.1</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:2">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4">
-        <v>3</v>
-      </c>
-      <c r="C4">
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:2">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5">
-        <v>4</v>
-      </c>
-      <c r="C5">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:2">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6">
-        <v>5</v>
-      </c>
-      <c r="C6">
         <v>1.6</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:2">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7">
-        <v>6</v>
-      </c>
-      <c r="C7">
         <v>1.6</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:2">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8">
-        <v>7</v>
-      </c>
-      <c r="C8">
         <v>1.6</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:2">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9">
-        <v>8</v>
-      </c>
-      <c r="C9">
         <v>1.7</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:2">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10">
-        <v>9</v>
-      </c>
-      <c r="C10">
         <v>1.7</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:2">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11">
-        <v>10</v>
-      </c>
-      <c r="C11">
         <v>1.9</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:2">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12">
-        <v>11</v>
-      </c>
-      <c r="C12">
         <v>2.1</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:2">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13">
-        <v>12</v>
-      </c>
-      <c r="C13">
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:2">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14">
-        <v>13</v>
-      </c>
-      <c r="C14">
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:2">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15">
-        <v>14</v>
-      </c>
-      <c r="C15">
         <v>1.9</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:2">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16">
-        <v>15</v>
-      </c>
-      <c r="C16">
         <v>1.8</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:2">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17">
-        <v>16</v>
-      </c>
-      <c r="C17">
         <v>1.9</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:2">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18">
-        <v>17</v>
-      </c>
-      <c r="C18">
         <v>1.9</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:2">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19">
-        <v>18</v>
-      </c>
-      <c r="C19">
         <v>1.8</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:2">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20">
-        <v>19</v>
-      </c>
-      <c r="C20">
         <v>1.7</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:2">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21">
-        <v>20</v>
-      </c>
-      <c r="C21">
         <v>1.7</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:2">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22">
-        <v>21</v>
-      </c>
-      <c r="C22">
         <v>1.6</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:2">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23">
-        <v>22</v>
-      </c>
-      <c r="C23">
         <v>1.7</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:2">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24">
-        <v>23</v>
-      </c>
-      <c r="C24">
         <v>1.7</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:2">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25">
-        <v>24</v>
-      </c>
-      <c r="C25">
         <v>1.7</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:2">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26">
-        <v>25</v>
-      </c>
-      <c r="C26">
         <v>1.6</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:2">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27">
-        <v>26</v>
-      </c>
-      <c r="C27">
         <v>1.6</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:2">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28">
-        <v>27</v>
-      </c>
-      <c r="C28">
         <v>1.6</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:2">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29">
-        <v>28</v>
-      </c>
-      <c r="C29">
         <v>1.8</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:2">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30">
-        <v>29</v>
-      </c>
-      <c r="C30">
         <v>1.7</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:2">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31">
-        <v>30</v>
-      </c>
-      <c r="C31">
         <v>1.6</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:2">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32">
-        <v>31</v>
-      </c>
-      <c r="C32">
         <v>1.6</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:2">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33">
-        <v>32</v>
-      </c>
-      <c r="C33">
         <v>1.5</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:2">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34">
-        <v>33</v>
-      </c>
-      <c r="C34">
         <v>1.6</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:2">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35">
-        <v>34</v>
-      </c>
-      <c r="C35">
         <v>1.6</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:2">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36">
-        <v>35</v>
-      </c>
-      <c r="C36">
         <v>1.5</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:2">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37">
-        <v>36</v>
-      </c>
-      <c r="C37">
         <v>1.5</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:2">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38">
-        <v>37</v>
-      </c>
-      <c r="C38">
         <v>1.4</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:2">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39">
-        <v>38</v>
-      </c>
-      <c r="C39">
         <v>1.4</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:2">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40">
-        <v>39</v>
-      </c>
-      <c r="C40">
         <v>1.4</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:2">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41">
-        <v>40</v>
-      </c>
-      <c r="C41">
         <v>1.5</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:2">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42">
-        <v>41</v>
-      </c>
-      <c r="C42">
         <v>1.5</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:2">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43">
-        <v>42</v>
-      </c>
-      <c r="C43">
         <v>1.5</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:2">
       <c r="A44">
         <v>43</v>
       </c>
       <c r="B44">
-        <v>43</v>
-      </c>
-      <c r="C44">
         <v>1.4</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:2">
       <c r="A45">
         <v>44</v>
       </c>
       <c r="B45">
-        <v>44</v>
-      </c>
-      <c r="C45">
         <v>1.4</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:2">
       <c r="A46">
         <v>45</v>
       </c>
       <c r="B46">
-        <v>45</v>
-      </c>
-      <c r="C46">
         <v>1.4</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:2">
       <c r="A47">
         <v>46</v>
       </c>
       <c r="B47">
-        <v>46</v>
-      </c>
-      <c r="C47">
         <v>1.4</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:2">
       <c r="A48">
         <v>47</v>
       </c>
       <c r="B48">
-        <v>47</v>
-      </c>
-      <c r="C48">
         <v>1.3</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:2">
       <c r="A49">
         <v>48</v>
       </c>
       <c r="B49">
-        <v>48</v>
-      </c>
-      <c r="C49">
         <v>1.3</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:2">
       <c r="A50">
         <v>49</v>
       </c>
       <c r="B50">
-        <v>49</v>
-      </c>
-      <c r="C50">
         <v>1.3</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:2">
       <c r="A51">
         <v>50</v>
       </c>
       <c r="B51">
-        <v>50</v>
-      </c>
-      <c r="C51">
         <v>1.3</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:2">
       <c r="A52">
         <v>51</v>
       </c>
       <c r="B52">
-        <v>51</v>
-      </c>
-      <c r="C52">
         <v>1.3</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:2">
       <c r="A53">
         <v>52</v>
       </c>
       <c r="B53">
-        <v>52</v>
-      </c>
-      <c r="C53">
         <v>1.3</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:2">
       <c r="A54">
         <v>53</v>
       </c>
       <c r="B54">
-        <v>53</v>
-      </c>
-      <c r="C54">
         <v>1.3</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:2">
       <c r="A55">
         <v>54</v>
       </c>
       <c r="B55">
-        <v>54</v>
-      </c>
-      <c r="C55">
         <v>1.2</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:2">
       <c r="A56">
         <v>55</v>
       </c>
       <c r="B56">
-        <v>55</v>
-      </c>
-      <c r="C56">
         <v>1.2</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:2">
       <c r="A57">
         <v>56</v>
       </c>
       <c r="B57">
-        <v>56</v>
-      </c>
-      <c r="C57">
         <v>1.2</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:2">
       <c r="A58">
         <v>57</v>
       </c>
       <c r="B58">
-        <v>57</v>
-      </c>
-      <c r="C58">
         <v>1.2</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:2">
       <c r="A59">
         <v>58</v>
       </c>
       <c r="B59">
-        <v>58</v>
-      </c>
-      <c r="C59">
         <v>1.2</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:2">
       <c r="A60">
         <v>59</v>
       </c>
       <c r="B60">
-        <v>59</v>
-      </c>
-      <c r="C60">
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:2">
       <c r="A61">
         <v>60</v>
       </c>
       <c r="B61">
-        <v>60</v>
-      </c>
-      <c r="C61">
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
+    <row r="62" spans="1:2">
       <c r="A62">
         <v>61</v>
       </c>
       <c r="B62">
-        <v>61</v>
-      </c>
-      <c r="C62">
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
+    <row r="63" spans="1:2">
       <c r="A63">
         <v>62</v>
       </c>
       <c r="B63">
-        <v>62</v>
-      </c>
-      <c r="C63">
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
+    <row r="64" spans="1:2">
       <c r="A64">
         <v>63</v>
       </c>
       <c r="B64">
-        <v>63</v>
-      </c>
-      <c r="C64">
         <v>1.2</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
+    <row r="65" spans="1:2">
       <c r="A65">
         <v>64</v>
       </c>
       <c r="B65">
-        <v>64</v>
-      </c>
-      <c r="C65">
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
+    <row r="66" spans="1:2">
       <c r="A66">
         <v>65</v>
       </c>
       <c r="B66">
-        <v>65</v>
-      </c>
-      <c r="C66">
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
+    <row r="67" spans="1:2">
       <c r="A67">
         <v>66</v>
       </c>
       <c r="B67">
-        <v>66</v>
-      </c>
-      <c r="C67">
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
+    <row r="68" spans="1:2">
       <c r="A68">
         <v>67</v>
       </c>
       <c r="B68">
-        <v>67</v>
-      </c>
-      <c r="C68">
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
+    <row r="69" spans="1:2">
       <c r="A69">
         <v>68</v>
       </c>
       <c r="B69">
-        <v>68</v>
-      </c>
-      <c r="C69">
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="70" spans="1:3">
+    <row r="70" spans="1:2">
       <c r="A70">
         <v>69</v>
       </c>
       <c r="B70">
-        <v>69</v>
-      </c>
-      <c r="C70">
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="71" spans="1:3">
+    <row r="71" spans="1:2">
       <c r="A71">
         <v>70</v>
       </c>
       <c r="B71">
-        <v>70</v>
-      </c>
-      <c r="C71">
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="72" spans="1:3">
+    <row r="72" spans="1:2">
       <c r="A72">
         <v>71</v>
       </c>
       <c r="B72">
-        <v>71</v>
-      </c>
-      <c r="C72">
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="73" spans="1:3">
+    <row r="73" spans="1:2">
       <c r="A73">
         <v>72</v>
       </c>
       <c r="B73">
-        <v>72</v>
-      </c>
-      <c r="C73">
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="74" spans="1:3">
+    <row r="74" spans="1:2">
       <c r="A74">
         <v>73</v>
       </c>
       <c r="B74">
-        <v>73</v>
-      </c>
-      <c r="C74">
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="75" spans="1:3">
+    <row r="75" spans="1:2">
       <c r="A75">
         <v>74</v>
       </c>
       <c r="B75">
-        <v>74</v>
-      </c>
-      <c r="C75">
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="76" spans="1:3">
+    <row r="76" spans="1:2">
       <c r="A76">
         <v>75</v>
       </c>
       <c r="B76">
-        <v>75</v>
-      </c>
-      <c r="C76">
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="77" spans="1:3">
+    <row r="77" spans="1:2">
       <c r="A77">
         <v>76</v>
       </c>
       <c r="B77">
-        <v>76</v>
-      </c>
-      <c r="C77">
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="78" spans="1:3">
+    <row r="78" spans="1:2">
       <c r="A78">
         <v>77</v>
       </c>
       <c r="B78">
-        <v>77</v>
-      </c>
-      <c r="C78">
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="79" spans="1:3">
+    <row r="79" spans="1:2">
       <c r="A79">
         <v>78</v>
       </c>
       <c r="B79">
-        <v>78</v>
-      </c>
-      <c r="C79">
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="80" spans="1:3">
+    <row r="80" spans="1:2">
       <c r="A80">
         <v>79</v>
       </c>
       <c r="B80">
-        <v>79</v>
-      </c>
-      <c r="C80">
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="81" spans="1:3">
+    <row r="81" spans="1:2">
       <c r="A81">
         <v>80</v>
       </c>
       <c r="B81">
-        <v>80</v>
-      </c>
-      <c r="C81">
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="82" spans="1:3">
+    <row r="82" spans="1:2">
       <c r="A82">
         <v>81</v>
       </c>
       <c r="B82">
-        <v>81</v>
-      </c>
-      <c r="C82">
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="83" spans="1:3">
+    <row r="83" spans="1:2">
       <c r="A83">
         <v>82</v>
       </c>
       <c r="B83">
-        <v>82</v>
-      </c>
-      <c r="C83">
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="84" spans="1:3">
+    <row r="84" spans="1:2">
       <c r="A84">
         <v>83</v>
       </c>
       <c r="B84">
-        <v>83</v>
-      </c>
-      <c r="C84">
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:3">
+    <row r="85" spans="1:2">
       <c r="A85">
         <v>84</v>
       </c>
       <c r="B85">
-        <v>84</v>
-      </c>
-      <c r="C85">
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:3">
+    <row r="86" spans="1:2">
       <c r="A86">
         <v>85</v>
       </c>
       <c r="B86">
-        <v>85</v>
-      </c>
-      <c r="C86">
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:3">
+    <row r="87" spans="1:2">
       <c r="A87">
         <v>86</v>
       </c>
       <c r="B87">
-        <v>86</v>
-      </c>
-      <c r="C87">
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:3">
+    <row r="88" spans="1:2">
       <c r="A88">
         <v>87</v>
       </c>
       <c r="B88">
-        <v>87</v>
-      </c>
-      <c r="C88">
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:3">
+    <row r="89" spans="1:2">
       <c r="A89">
         <v>88</v>
       </c>
       <c r="B89">
-        <v>88</v>
-      </c>
-      <c r="C89">
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:3">
+    <row r="90" spans="1:2">
       <c r="A90">
         <v>89</v>
       </c>
       <c r="B90">
-        <v>89</v>
-      </c>
-      <c r="C90">
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:3">
+    <row r="91" spans="1:2">
       <c r="A91">
         <v>90</v>
       </c>
       <c r="B91">
-        <v>90</v>
-      </c>
-      <c r="C91">
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:3">
+    <row r="92" spans="1:2">
       <c r="A92">
         <v>91</v>
       </c>
       <c r="B92">
-        <v>91</v>
-      </c>
-      <c r="C92">
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:3">
+    <row r="93" spans="1:2">
       <c r="A93">
         <v>92</v>
       </c>
       <c r="B93">
-        <v>92</v>
-      </c>
-      <c r="C93">
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:3">
+    <row r="94" spans="1:2">
       <c r="A94">
         <v>93</v>
       </c>
       <c r="B94">
-        <v>93</v>
-      </c>
-      <c r="C94">
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:3">
+    <row r="95" spans="1:2">
       <c r="A95">
         <v>94</v>
       </c>
       <c r="B95">
-        <v>94</v>
-      </c>
-      <c r="C95">
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:3">
+    <row r="96" spans="1:2">
       <c r="A96">
         <v>95</v>
       </c>
       <c r="B96">
-        <v>95</v>
-      </c>
-      <c r="C96">
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:3">
+    <row r="97" spans="1:2">
       <c r="A97">
         <v>96</v>
       </c>
       <c r="B97">
-        <v>96</v>
-      </c>
-      <c r="C97">
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:3">
+    <row r="98" spans="1:2">
       <c r="A98">
         <v>97</v>
       </c>
       <c r="B98">
-        <v>97</v>
-      </c>
-      <c r="C98">
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:3">
+    <row r="99" spans="1:2">
       <c r="A99">
         <v>98</v>
       </c>
       <c r="B99">
-        <v>98</v>
-      </c>
-      <c r="C99">
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:3">
+    <row r="100" spans="1:2">
       <c r="A100">
         <v>99</v>
       </c>
       <c r="B100">
-        <v>99</v>
-      </c>
-      <c r="C100">
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:3">
+    <row r="101" spans="1:2">
       <c r="A101">
         <v>100</v>
       </c>
       <c r="B101">
-        <v>100</v>
-      </c>
-      <c r="C101">
         <v>1</v>
       </c>
     </row>
@@ -25214,7 +24914,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>

--- a/Code/R/Magnan/VaxiJen_IT.xlsx
+++ b/Code/R/Magnan/VaxiJen_IT.xlsx
@@ -4413,9 +4413,6 @@
     <t>BH16700</t>
   </si>
   <si>
-    <t>TopRank%</t>
-  </si>
-  <si>
     <t>Enrichment</t>
   </si>
   <si>
@@ -4438,6 +4435,9 @@
   </si>
   <si>
     <t>Score</t>
+  </si>
+  <si>
+    <t>TopRank</t>
   </si>
 </sst>
 </file>
@@ -5626,23 +5626,23 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="139549696"/>
-        <c:axId val="139559680"/>
+        <c:axId val="85848064"/>
+        <c:axId val="85849600"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="139549696"/>
+        <c:axId val="85848064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="139559680"/>
+        <c:crossAx val="85849600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="139559680"/>
+        <c:axId val="85849600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5650,7 +5650,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="139549696"/>
+        <c:crossAx val="85848064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5663,7 +5663,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -7570,23 +7570,23 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="139966720"/>
-        <c:axId val="139976704"/>
+        <c:axId val="85937536"/>
+        <c:axId val="85976192"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="139966720"/>
+        <c:axId val="85937536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="139976704"/>
+        <c:crossAx val="85976192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="139976704"/>
+        <c:axId val="85976192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7594,20 +7594,19 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="139966720"/>
+        <c:crossAx val="85937536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -7984,7 +7983,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -24091,17 +24090,17 @@
   <dimension ref="A1:B101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:2" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
+        <v>1473</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1465</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1466</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -24922,22 +24921,22 @@
   <sheetData>
     <row r="1" spans="1:7" s="1" customFormat="1">
       <c r="B1" s="1" t="s">
+        <v>1466</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1467</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>1468</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>1469</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>1470</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>1471</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>1472</v>
       </c>
     </row>
     <row r="2" spans="1:7">

--- a/Code/R/Magnan/VaxiJen_IT.xlsx
+++ b/Code/R/Magnan/VaxiJen_IT.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="45" windowWidth="20115" windowHeight="7995" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="45" windowWidth="20115" windowHeight="7995" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Score" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1474" uniqueCount="1474">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1475" uniqueCount="1475">
   <si>
     <t>ID</t>
   </si>
@@ -4438,6 +4438,9 @@
   </si>
   <si>
     <t>TopRank</t>
+  </si>
+  <si>
+    <t>&lt;-- DEFAULT THRESHOLD</t>
   </si>
 </sst>
 </file>
@@ -5626,23 +5629,23 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="85848064"/>
-        <c:axId val="85849600"/>
+        <c:axId val="63689088"/>
+        <c:axId val="63690624"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="85848064"/>
+        <c:axId val="63689088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="85849600"/>
+        <c:crossAx val="63690624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="85849600"/>
+        <c:axId val="63690624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5650,7 +5653,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="85848064"/>
+        <c:crossAx val="63689088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5663,7 +5666,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000111" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000111" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -7570,23 +7573,23 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="85937536"/>
-        <c:axId val="85976192"/>
+        <c:axId val="77794688"/>
+        <c:axId val="77825152"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="85937536"/>
+        <c:axId val="77794688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="85976192"/>
+        <c:crossAx val="77825152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="85976192"/>
+        <c:axId val="77825152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7594,19 +7597,20 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="85937536"/>
+        <c:crossAx val="77794688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -7970,7 +7974,7 @@
   <dimension ref="A1:C1464"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -24089,7 +24093,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -24911,10 +24915,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G100"/>
+  <dimension ref="A1:H100"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B29" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -25652,7 +25659,7 @@
         <v>5.1221434200157602E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:8">
       <c r="A33">
         <v>32</v>
       </c>
@@ -25675,7 +25682,7 @@
         <v>5.0806451612903203E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:8">
       <c r="A34">
         <v>33</v>
       </c>
@@ -25698,7 +25705,7 @@
         <v>5.2325581395348798E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:8">
       <c r="A35">
         <v>34</v>
       </c>
@@ -25721,7 +25728,7 @@
         <v>5.3754266211604097E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:8">
       <c r="A36">
         <v>35</v>
       </c>
@@ -25744,7 +25751,7 @@
         <v>5.4673721340387997E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:8">
       <c r="A37">
         <v>36</v>
       </c>
@@ -25767,7 +25774,7 @@
         <v>5.3259871441689602E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" spans="1:8">
       <c r="A38">
         <v>37</v>
       </c>
@@ -25790,7 +25797,7 @@
         <v>5.34351145038168E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:7">
+    <row r="39" spans="1:8">
       <c r="A39">
         <v>38</v>
       </c>
@@ -25813,7 +25820,7 @@
         <v>5.5165496489468398E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:7">
+    <row r="40" spans="1:8">
       <c r="A40">
         <v>39</v>
       </c>
@@ -25836,30 +25843,33 @@
         <v>5.7053941908713698E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:7">
-      <c r="A41">
+    <row r="41" spans="1:8" s="1" customFormat="1">
+      <c r="A41" s="1">
         <v>40</v>
       </c>
-      <c r="B41">
+      <c r="B41" s="1">
         <v>0.4</v>
       </c>
-      <c r="C41">
+      <c r="C41" s="1">
         <v>0.397129186602871</v>
       </c>
-      <c r="D41">
+      <c r="D41" s="1">
         <v>0.72602739726027399</v>
       </c>
-      <c r="E41">
+      <c r="E41" s="1">
         <v>0.37985611510791401</v>
       </c>
-      <c r="F41">
+      <c r="F41" s="1">
         <v>4.7631728649054697E-2</v>
       </c>
-      <c r="G41">
+      <c r="G41" s="1">
         <v>5.7923497267759597E-2</v>
       </c>
-    </row>
-    <row r="42" spans="1:7">
+      <c r="H41" s="1" t="s">
+        <v>1474</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42">
         <v>41</v>
       </c>
@@ -25882,7 +25892,7 @@
         <v>5.6192660550458698E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:7">
+    <row r="43" spans="1:8">
       <c r="A43">
         <v>42</v>
       </c>
@@ -25905,7 +25915,7 @@
         <v>5.93220338983051E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:7">
+    <row r="44" spans="1:8">
       <c r="A44">
         <v>43</v>
       </c>
@@ -25928,7 +25938,7 @@
         <v>6.2261753494282097E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:7">
+    <row r="45" spans="1:8">
       <c r="A45">
         <v>44</v>
       </c>
@@ -25951,7 +25961,7 @@
         <v>6.47773279352227E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:7">
+    <row r="46" spans="1:8">
       <c r="A46">
         <v>45</v>
       </c>
@@ -25974,7 +25984,7 @@
         <v>6.73352435530086E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:7">
+    <row r="47" spans="1:8">
       <c r="A47">
         <v>46</v>
       </c>
@@ -25997,7 +26007,7 @@
         <v>6.9444444444444406E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:7">
+    <row r="48" spans="1:8">
       <c r="A48">
         <v>47</v>
       </c>
